--- a/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu03TKKK.xlsx
+++ b/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu03TKKK.xlsx
@@ -775,71 +775,83 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1125,7 +1137,7 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:AH8"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1647,217 +1659,217 @@
     <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
     </row>
     <row r="3" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
       <c r="AF3" s="4"/>
-      <c r="AG3" s="35" t="s">
+      <c r="AG3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
     </row>
     <row r="4" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
       <c r="AF4" s="4"/>
-      <c r="AG4" s="35" t="s">
+      <c r="AG4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
     </row>
     <row r="5" spans="1:35" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AF5" s="5"/>
-      <c r="AG5" s="36" t="s">
+      <c r="AG5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
     </row>
     <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
     </row>
     <row r="7" spans="1:35" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
@@ -2165,122 +2177,122 @@
       <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="1:35" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="31" t="s">
+      <c r="AC10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
       <c r="AH10" s="21"/>
       <c r="AI10" s="12"/>
     </row>
     <row r="11" spans="1:35" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="33" t="s">
+      <c r="AC11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="13"/>
     </row>
     <row r="12" spans="1:35" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
       <c r="AH12" s="23"/>
     </row>
     <row r="13" spans="1:35" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2389,121 +2401,121 @@
       <c r="AH15" s="14"/>
     </row>
     <row r="16" spans="1:35" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
     </row>
     <row r="17" spans="1:35" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
     </row>
     <row r="18" spans="1:35" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
     </row>
     <row r="19" spans="1:35" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
@@ -2542,13 +2554,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D1:AD1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B18:AI18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="A16:AI16"/>
+    <mergeCell ref="B17:AI17"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AC11:AG11"/>
     <mergeCell ref="D4:AD4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AG5:AI5"/>
@@ -2557,24 +2577,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:AI6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="B18:AI18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="A16:AI16"/>
-    <mergeCell ref="B17:AI17"/>
+    <mergeCell ref="D3:AD3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D1:AD1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="A9:XFD9">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>OR($C9="TS",$C9="NNP",$C9="CSD",$C9="PNN")</formula>
     </cfRule>
   </conditionalFormatting>
